--- a/medicine/Handicap/Langue_des_signes_libyenne/Langue_des_signes_libyenne.xlsx
+++ b/medicine/Handicap/Langue_des_signes_libyenne/Langue_des_signes_libyenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La langue des signes libyenne est la langue des signes utilisée par les personnes sourdes et leurs proches en Libye.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La langue des signes libyenne fait partie de la famille de la langue des signes arabe et 34% de ses signes sont identiques (16%) ou  liés (18%) à la langue des signes jordanienne[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La langue des signes libyenne fait partie de la famille de la langue des signes arabe et 34% de ses signes sont identiques (16%) ou  liés (18%) à la langue des signes jordanienne
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un dictionnaire de 80 pages a été créé en 1984 par Abdalla Suwed[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dictionnaire de 80 pages a été créé en 1984 par Abdalla Suwed.
 </t>
         </is>
       </c>
